--- a/faults-dingding/debugging_dd.xlsx
+++ b/faults-dingding/debugging_dd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitwork\fault_replicate\faults-dingding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/work/workspace_micros/fault_replicate/faults-dingding/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22780" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="2" r:id="rId1"/>
@@ -3070,7 +3070,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -3183,7 +3183,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3452,25 +3452,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="13" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3833,26 +3833,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -4316,26 +4316,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -4902,26 +4902,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="45.125" customWidth="1"/>
+    <col min="13" max="13" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -4970,7 +4970,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="47.25">
+    <row r="4" spans="2:13" ht="48">
       <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
@@ -5706,24 +5706,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="3.875" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
@@ -5809,7 +5809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="47.25">
+    <row r="5" spans="2:13" ht="48">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6547,24 +6547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="4.125" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
     <col min="13" max="13" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6614,7 +6614,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="47.25">
+    <row r="4" spans="2:13" ht="64">
       <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
@@ -7206,26 +7206,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -7945,26 +7945,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="3.875" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -8623,27 +8623,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:M72"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="5.375" customWidth="1"/>
-    <col min="13" max="13" width="46.125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -9296,27 +9296,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="3.875" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="34.375" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -9740,7 +9740,7 @@
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:13" ht="31.5">
+    <row r="22" spans="3:13" ht="32">
       <c r="C22" s="2" t="s">
         <v>207</v>
       </c>
@@ -9753,7 +9753,9 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>303</v>
       </c>
@@ -9784,7 +9786,9 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>304</v>
       </c>
@@ -9812,7 +9816,9 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>305</v>
       </c>
@@ -9835,27 +9841,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">

--- a/faults-dingding/debugging_dd.xlsx
+++ b/faults-dingding/debugging_dd.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/work/workspace_micros/fault_replicate/faults-dingding/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA469C-410D-D94B-BF18-87713AA2E0F7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27060" windowHeight="18780" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="2" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="215">
   <si>
     <t>Fault</t>
   </si>
@@ -1695,9 +1701,6 @@
     </r>
   </si>
   <si>
-    <t>A10(11m)</t>
-  </si>
-  <si>
     <t>R11-1</t>
   </si>
   <si>
@@ -1742,15 +1745,9 @@
     </r>
   </si>
   <si>
-    <t>A10(9m)</t>
-  </si>
-  <si>
     <t>R12-1</t>
   </si>
   <si>
-    <t>A10(15m)</t>
-  </si>
-  <si>
     <t>R13-1</t>
   </si>
   <si>
@@ -1803,19 +1800,63 @@
   </si>
   <si>
     <t>A8(16m)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(stationIds) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C13</t>
+    </r>
+  </si>
+  <si>
+    <t>A13(15m)</t>
+  </si>
+  <si>
+    <t>A11(11m)</t>
+  </si>
+  <si>
+    <t>A12(9m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1865,353 +1906,16 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2219,251 +1923,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2499,61 +1961,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2808,34 +2226,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="15.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.16666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="5.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.83333333333333" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="13" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2881,7 +2299,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="37.5" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="37.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2917,7 +2335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="2:13">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +2395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="2:13">
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +2425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +2455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3067,7 +2485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3097,7 +2515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3127,7 +2545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
@@ -3157,7 +2575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3188,36 +2606,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +2666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3263,9 +2679,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
@@ -3297,7 +2713,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3309,7 +2725,7 @@
       <c r="J5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3339,7 +2755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="2:13">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3350,7 +2766,7 @@
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3367,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3380,7 +2796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3391,7 +2807,7 @@
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2" t="s">
         <v>139</v>
       </c>
@@ -3408,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -3421,7 +2837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3433,7 +2849,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
@@ -3450,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -3463,7 +2879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3474,7 +2890,7 @@
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2" t="s">
         <v>142</v>
       </c>
@@ -3504,7 +2920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3516,7 +2932,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="3" t="s">
         <v>127</v>
       </c>
@@ -3533,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
@@ -3615,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
@@ -3657,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
@@ -3671,37 +3087,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3747,9 +3161,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
@@ -3781,7 +3195,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="2:13">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -3801,7 +3215,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3813,7 +3227,7 @@
       <c r="J6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="2:13">
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3830,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -3843,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3861,7 +3275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3872,7 +3286,7 @@
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3902,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3913,7 +3327,7 @@
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="2" t="s">
         <v>139</v>
       </c>
@@ -3930,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -3943,7 +3357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3961,7 +3375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3973,7 +3387,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
@@ -4003,7 +3417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4132,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
@@ -4191,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
@@ -4246,7 +3660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="10:12">
+    <row r="28" spans="3:12">
       <c r="J28" s="2" t="s">
         <v>76</v>
       </c>
@@ -4258,37 +3672,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83333333333333" customWidth="1"/>
-    <col min="2" max="2" width="5.16666666666667" customWidth="1"/>
-    <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="10.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="45.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4321,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4334,7 +3746,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="47.25" spans="2:13">
+    <row r="4" spans="2:13" ht="48">
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
@@ -4370,7 +3782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4389,7 +3801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4402,7 +3814,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -4433,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4446,7 +3858,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
@@ -4476,7 +3888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4494,7 +3906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4506,7 +3918,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="8" t="s">
         <v>52</v>
       </c>
@@ -4536,7 +3948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4554,7 +3966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4572,7 +3984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4584,7 +3996,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
@@ -4926,7 +4338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="10:12">
+    <row r="33" spans="3:12">
       <c r="J33" s="2" t="s">
         <v>71</v>
       </c>
@@ -4937,7 +4349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="10:12">
+    <row r="34" spans="3:12">
       <c r="J34" s="2" t="s">
         <v>72</v>
       </c>
@@ -4948,7 +4360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="10:12">
+    <row r="35" spans="3:12">
       <c r="J35" s="2" t="s">
         <v>73</v>
       </c>
@@ -4959,7 +4371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="10:12">
+    <row r="36" spans="3:12">
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -5030,7 +4442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="10:12">
+    <row r="40" spans="3:12">
       <c r="J40" s="2" t="s">
         <v>78</v>
       </c>
@@ -5041,7 +4453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="10:12">
+    <row r="41" spans="3:12">
       <c r="J41" s="2" t="s">
         <v>79</v>
       </c>
@@ -5052,7 +4464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="10:12">
+    <row r="42" spans="3:12">
       <c r="J42" s="2" t="s">
         <v>80</v>
       </c>
@@ -5064,38 +4476,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="10"/>
-    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="3.83333333333333" customWidth="1"/>
-    <col min="10" max="10" width="6.83333333333333" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
     <col min="14" max="257" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5128,7 +4538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5141,7 +4551,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
@@ -5174,7 +4584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="47.25" spans="2:13">
+    <row r="5" spans="2:13" ht="48">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5196,7 +4606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5215,7 +4625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="10:12">
+    <row r="7" spans="2:13">
       <c r="J7" s="2" t="s">
         <v>85</v>
       </c>
@@ -5226,7 +4636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="10:12">
+    <row r="8" spans="2:13">
       <c r="J8" s="2" t="s">
         <v>86</v>
       </c>
@@ -5237,7 +4647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -5247,7 +4657,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2" t="s">
         <v>87</v>
       </c>
@@ -5276,7 +4686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="10:12">
+    <row r="11" spans="2:13">
       <c r="J11" s="2" t="s">
         <v>89</v>
       </c>
@@ -5287,7 +4697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="10:12">
+    <row r="12" spans="2:13">
       <c r="J12" s="2" t="s">
         <v>90</v>
       </c>
@@ -5298,7 +4708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="10:12">
+    <row r="13" spans="2:13">
       <c r="J13" s="2" t="s">
         <v>91</v>
       </c>
@@ -5309,7 +4719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="10:12">
+    <row r="14" spans="2:13">
       <c r="J14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5320,7 +4730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
@@ -5349,7 +4759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="10:12">
+    <row r="17" spans="3:12">
       <c r="J17" s="2" t="s">
         <v>51</v>
       </c>
@@ -5360,7 +4770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="10:12">
+    <row r="18" spans="3:12">
       <c r="J18" s="2" t="s">
         <v>95</v>
       </c>
@@ -5371,7 +4781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="10:12">
+    <row r="19" spans="3:12">
       <c r="J19" s="2" t="s">
         <v>96</v>
       </c>
@@ -5382,7 +4792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="10:12">
+    <row r="20" spans="3:12">
       <c r="J20" s="2" t="s">
         <v>97</v>
       </c>
@@ -5422,7 +4832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="10:12">
+    <row r="23" spans="3:12">
       <c r="J23" s="2" t="s">
         <v>54</v>
       </c>
@@ -5433,7 +4843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="10:12">
+    <row r="24" spans="3:12">
       <c r="J24" s="2" t="s">
         <v>55</v>
       </c>
@@ -5444,7 +4854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="10:12">
+    <row r="25" spans="3:12">
       <c r="J25" s="2" t="s">
         <v>99</v>
       </c>
@@ -5455,7 +4865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="10:12">
+    <row r="26" spans="3:12">
       <c r="J26" s="2" t="s">
         <v>100</v>
       </c>
@@ -5495,7 +4905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="10:12">
+    <row r="29" spans="3:12">
       <c r="J29" s="2" t="s">
         <v>101</v>
       </c>
@@ -5506,7 +4916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="10:12">
+    <row r="30" spans="3:12">
       <c r="J30" s="2" t="s">
         <v>102</v>
       </c>
@@ -5517,7 +4927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="10:12">
+    <row r="31" spans="3:12">
       <c r="J31" s="2" t="s">
         <v>103</v>
       </c>
@@ -5528,7 +4938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="10:12">
+    <row r="32" spans="3:12">
       <c r="J32" s="2" t="s">
         <v>104</v>
       </c>
@@ -5568,7 +4978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="10:12">
+    <row r="35" spans="3:12">
       <c r="J35" s="2" t="s">
         <v>59</v>
       </c>
@@ -5579,7 +4989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="10:12">
+    <row r="36" spans="3:12">
       <c r="J36" s="2" t="s">
         <v>60</v>
       </c>
@@ -5590,7 +5000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="10:12">
+    <row r="37" spans="3:12">
       <c r="J37" s="2" t="s">
         <v>61</v>
       </c>
@@ -5601,7 +5011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="10:12">
+    <row r="38" spans="3:12">
       <c r="J38" s="2" t="s">
         <v>106</v>
       </c>
@@ -5641,7 +5051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="10:12">
+    <row r="41" spans="3:12">
       <c r="J41" s="2" t="s">
         <v>63</v>
       </c>
@@ -5652,7 +5062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="10:12">
+    <row r="42" spans="3:12">
       <c r="J42" s="2" t="s">
         <v>64</v>
       </c>
@@ -5663,7 +5073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="10:12">
+    <row r="43" spans="3:12">
       <c r="J43" s="2" t="s">
         <v>108</v>
       </c>
@@ -5674,7 +5084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="10:12">
+    <row r="44" spans="3:12">
       <c r="J44" s="2" t="s">
         <v>109</v>
       </c>
@@ -5714,7 +5124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="10:12">
+    <row r="47" spans="3:12">
       <c r="J47" s="2" t="s">
         <v>66</v>
       </c>
@@ -5725,7 +5135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="10:12">
+    <row r="48" spans="3:12">
       <c r="J48" s="2" t="s">
         <v>67</v>
       </c>
@@ -5736,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="10:12">
+    <row r="49" spans="3:12">
       <c r="J49" s="2" t="s">
         <v>68</v>
       </c>
@@ -5747,7 +5157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="10:12">
+    <row r="50" spans="3:12">
       <c r="J50" s="2" t="s">
         <v>112</v>
       </c>
@@ -5787,7 +5197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="10:12">
+    <row r="53" spans="3:12">
       <c r="J53" s="2" t="s">
         <v>71</v>
       </c>
@@ -5798,7 +5208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="10:12">
+    <row r="54" spans="3:12">
       <c r="J54" s="2" t="s">
         <v>72</v>
       </c>
@@ -5809,7 +5219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="10:12">
+    <row r="55" spans="3:12">
       <c r="J55" s="2" t="s">
         <v>73</v>
       </c>
@@ -5820,7 +5230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="10:12">
+    <row r="56" spans="3:12">
       <c r="J56" s="2" t="s">
         <v>114</v>
       </c>
@@ -5860,7 +5270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="10:12">
+    <row r="59" spans="3:12">
       <c r="J59" s="2" t="s">
         <v>76</v>
       </c>
@@ -5871,7 +5281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="10:12">
+    <row r="60" spans="3:12">
       <c r="J60" s="2" t="s">
         <v>77</v>
       </c>
@@ -5882,7 +5292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="10:12">
+    <row r="61" spans="3:12">
       <c r="J61" s="2" t="s">
         <v>78</v>
       </c>
@@ -5893,7 +5303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="10:12">
+    <row r="62" spans="3:12">
       <c r="J62" s="2" t="s">
         <v>79</v>
       </c>
@@ -5905,36 +5315,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="32.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="4.16666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="5.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
     <col min="13" max="13" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5967,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5980,7 +5388,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="47.25" spans="2:13">
+    <row r="4" spans="2:13" ht="64">
       <c r="B4" s="2" t="s">
         <v>117</v>
       </c>
@@ -6016,7 +5424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6035,7 +5443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +5473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="2:13">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
@@ -6082,7 +5490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -6099,7 +5507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
@@ -6129,7 +5537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6147,7 +5555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
@@ -6164,7 +5572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="3" t="s">
         <v>122</v>
       </c>
@@ -6194,7 +5602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
@@ -6211,7 +5619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
@@ -6228,7 +5636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="3" t="s">
         <v>124</v>
       </c>
@@ -6258,7 +5666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6565,37 +5973,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="21.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="6.16666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6628,7 +6034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6641,7 +6047,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="46.5" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="46.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>133</v>
       </c>
@@ -6677,7 +6083,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6696,7 +6102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6715,7 +6121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -6727,7 +6133,7 @@
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +6163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6775,7 +6181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6793,7 +6199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6804,7 +6210,7 @@
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -6834,7 +6240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6852,7 +6258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6870,7 +6276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6881,7 +6287,7 @@
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="2" t="s">
         <v>139</v>
       </c>
@@ -7305,37 +6711,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="3.83333333333333" customWidth="1"/>
-    <col min="13" max="13" width="33.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7384,7 +6788,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" ht="20.25" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="20.25" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
@@ -7418,7 +6822,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7430,7 +6834,7 @@
       <c r="J5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -7460,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="2:13">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7471,7 +6875,7 @@
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -7501,7 +6905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7519,7 +6923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7530,7 +6934,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2" t="s">
         <v>139</v>
       </c>
@@ -7560,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7572,7 +6976,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
@@ -7602,7 +7006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7620,7 +7024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -7631,7 +7035,7 @@
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="2" t="s">
         <v>142</v>
       </c>
@@ -7984,38 +7388,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:M72"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="5.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="6.83333333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="5.33333333333333" customWidth="1"/>
-    <col min="13" max="13" width="46.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8062,7 +7464,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" ht="34.5" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="34.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>158</v>
       </c>
@@ -8098,7 +7500,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8117,7 +7519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -8129,7 +7531,7 @@
       <c r="J6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>87</v>
@@ -8160,7 +7562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -8173,7 +7575,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
@@ -8203,7 +7605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8214,7 +7616,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -8244,11 +7646,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:12">
+    <row r="12" spans="2:13">
       <c r="D12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
@@ -8278,7 +7680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8289,7 +7691,7 @@
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="3" t="s">
         <v>165</v>
       </c>
@@ -8319,7 +7721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -8442,7 +7844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="4:12">
+    <row r="22" spans="3:12">
       <c r="D22" s="2"/>
       <c r="L22" s="2"/>
     </row>
@@ -8476,14 +7878,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:12">
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="3:12">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8492,7 +7894,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="3:9">
+    <row r="29" spans="3:12">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -8501,7 +7903,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="32" spans="3:8">
+    <row r="32" spans="3:12">
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -8526,7 +7928,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="39" spans="3:8">
+    <row r="39" spans="3:9">
       <c r="C39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -8551,7 +7953,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="46" spans="3:8">
+    <row r="46" spans="3:9">
       <c r="C46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -8576,7 +7978,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="52" spans="3:8">
+    <row r="52" spans="3:9">
       <c r="C52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -8601,7 +8003,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="58" spans="3:8">
+    <row r="58" spans="3:9">
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -8626,7 +8028,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="65" spans="3:8">
+    <row r="65" spans="3:9">
       <c r="C65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -8651,7 +8053,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="72" spans="3:8">
+    <row r="72" spans="3:9">
       <c r="C72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -8659,34 +8061,32 @@
       <c r="H72" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="6.83333333333333" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="3.83333333333333" customWidth="1"/>
-    <col min="10" max="10" width="7.16666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="34.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -8823,7 +8223,7 @@
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:12">
       <c r="C8" s="2" t="s">
         <v>175</v>
       </c>
@@ -8853,7 +8253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:12">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8864,7 +8264,7 @@
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:12">
       <c r="C10" s="2" t="s">
         <v>177</v>
       </c>
@@ -8894,7 +8294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:12">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8905,7 +8305,7 @@
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:12">
       <c r="C12" s="2" t="s">
         <v>179</v>
       </c>
@@ -8935,7 +8335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:12">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8946,7 +8346,7 @@
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:12">
       <c r="C14" s="2" t="s">
         <v>180</v>
       </c>
@@ -8976,7 +8376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:12">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -8987,7 +8387,7 @@
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:12">
       <c r="C16" s="3" t="s">
         <v>182</v>
       </c>
@@ -9017,7 +8417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -9028,7 +8428,7 @@
       <c r="J17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:13">
       <c r="C18" s="5" t="s">
         <v>183</v>
       </c>
@@ -9058,7 +8458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -9069,7 +8469,7 @@
       <c r="J19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:13">
       <c r="C20" s="3" t="s">
         <v>185</v>
       </c>
@@ -9099,7 +8499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:13">
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -9110,7 +8510,7 @@
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" ht="31.5" spans="3:13">
+    <row r="22" spans="3:13" ht="32">
       <c r="C22" s="2" t="s">
         <v>187</v>
       </c>
@@ -9143,7 +8543,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:13">
       <c r="C24" s="5" t="s">
         <v>189</v>
       </c>
@@ -9160,11 +8560,11 @@
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
         <v>178</v>
@@ -9173,9 +8573,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:13">
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2">
         <v>8</v>
@@ -9190,11 +8590,11 @@
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s">
         <v>178</v>
@@ -9203,15 +8603,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:13">
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2">
         <v>8</v>
       </c>
       <c r="E28" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -9220,11 +8620,11 @@
         <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
         <v>178</v>
@@ -9234,38 +8634,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="6.16666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="6.16666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="33.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9298,7 +8696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9311,9 +8709,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="46.5" customHeight="1" spans="2:13">
+    <row r="4" spans="2:13" ht="46.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
@@ -9344,10 +8742,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9359,7 +8757,7 @@
       <c r="J5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9376,7 +8774,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -9389,7 +8787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="2:13">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -9400,7 +8798,7 @@
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="2:13">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -9417,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -9430,7 +8828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="2:13">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9441,7 +8839,7 @@
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="2:13">
       <c r="C10" s="2" t="s">
         <v>139</v>
       </c>
@@ -9458,7 +8856,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -9471,7 +8869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="2:13">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9483,7 +8881,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
@@ -9500,7 +8898,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -9513,7 +8911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="2:13">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9524,7 +8922,7 @@
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="2:13">
       <c r="C14" s="2" t="s">
         <v>142</v>
       </c>
@@ -9554,7 +8952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="2:13">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -9566,7 +8964,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="2:13">
       <c r="C16" s="3" t="s">
         <v>127</v>
       </c>
@@ -9665,7 +9063,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
@@ -9721,8 +9119,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>